--- a/EFcore30Benchmark/EFBenchmark_Result.xlsx
+++ b/EFcore30Benchmark/EFBenchmark_Result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>Spire.XLS for .NET</t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>930</t>
   </si>
 </sst>
 </file>
@@ -563,7 +590,7 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -587,6 +614,34 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
@@ -736,49 +791,49 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="40% - Accent1" xfId="20"/>
-    <cellStyle name="Check Cell" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Note" xfId="23"/>
-    <cellStyle name="Hyperlink" xfId="24"/>
-    <cellStyle name="60% - Accent4" xfId="25"/>
-    <cellStyle name="Followed Hyperlink" xfId="26"/>
-    <cellStyle name="40% - Accent3" xfId="27"/>
-    <cellStyle name="Warning Text" xfId="28"/>
-    <cellStyle name="40% - Accent2" xfId="29"/>
-    <cellStyle name="Title" xfId="30"/>
-    <cellStyle name="CExplanatory Text" xfId="31"/>
-    <cellStyle name="Heading 1" xfId="32"/>
-    <cellStyle name="Heading 3" xfId="33"/>
-    <cellStyle name="Heading 4" xfId="34"/>
-    <cellStyle name="Input" xfId="35"/>
-    <cellStyle name="60% - Accent3" xfId="36"/>
-    <cellStyle name="Good" xfId="37"/>
-    <cellStyle name="Output" xfId="38"/>
-    <cellStyle name="20% - Accent1" xfId="39"/>
-    <cellStyle name="Calculation" xfId="40"/>
-    <cellStyle name="Linked Cell" xfId="41"/>
-    <cellStyle name="Total" xfId="42"/>
-    <cellStyle name="Bad" xfId="43"/>
-    <cellStyle name="Neutral" xfId="44"/>
-    <cellStyle name="Accent1" xfId="45"/>
-    <cellStyle name="20% - Accent5" xfId="46"/>
-    <cellStyle name="60% - Accent1" xfId="47"/>
-    <cellStyle name="Accent2" xfId="48"/>
-    <cellStyle name="20% - Accent2" xfId="49"/>
-    <cellStyle name="20% - Accent6" xfId="50"/>
-    <cellStyle name="60% - Accent2" xfId="51"/>
-    <cellStyle name="Accent3" xfId="52"/>
-    <cellStyle name="20% - Accent3" xfId="53"/>
-    <cellStyle name="Accent4" xfId="54"/>
-    <cellStyle name="20% - Accent4" xfId="55"/>
-    <cellStyle name="40% - Accent4" xfId="56"/>
-    <cellStyle name="Accent5" xfId="57"/>
-    <cellStyle name="40% - Accent5" xfId="58"/>
-    <cellStyle name="60% - Accent5" xfId="59"/>
-    <cellStyle name="Accent6" xfId="60"/>
-    <cellStyle name="40% - Accent6" xfId="61"/>
-    <cellStyle name="60% - Accent6" xfId="62"/>
+    <cellStyle name="40% - Accent1" xfId="48"/>
+    <cellStyle name="Check Cell" xfId="49"/>
+    <cellStyle name="Heading 2" xfId="50"/>
+    <cellStyle name="Note" xfId="51"/>
+    <cellStyle name="Hyperlink" xfId="52"/>
+    <cellStyle name="60% - Accent4" xfId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="54"/>
+    <cellStyle name="40% - Accent3" xfId="55"/>
+    <cellStyle name="Warning Text" xfId="56"/>
+    <cellStyle name="40% - Accent2" xfId="57"/>
+    <cellStyle name="Title" xfId="58"/>
+    <cellStyle name="CExplanatory Text" xfId="59"/>
+    <cellStyle name="Heading 1" xfId="60"/>
+    <cellStyle name="Heading 3" xfId="61"/>
+    <cellStyle name="Heading 4" xfId="62"/>
+    <cellStyle name="Input" xfId="63"/>
+    <cellStyle name="60% - Accent3" xfId="64"/>
+    <cellStyle name="Good" xfId="65"/>
+    <cellStyle name="Output" xfId="66"/>
+    <cellStyle name="20% - Accent1" xfId="67"/>
+    <cellStyle name="Calculation" xfId="68"/>
+    <cellStyle name="Linked Cell" xfId="69"/>
+    <cellStyle name="Total" xfId="70"/>
+    <cellStyle name="Bad" xfId="71"/>
+    <cellStyle name="Neutral" xfId="72"/>
+    <cellStyle name="Accent1" xfId="73"/>
+    <cellStyle name="20% - Accent5" xfId="74"/>
+    <cellStyle name="60% - Accent1" xfId="75"/>
+    <cellStyle name="Accent2" xfId="76"/>
+    <cellStyle name="20% - Accent2" xfId="77"/>
+    <cellStyle name="20% - Accent6" xfId="78"/>
+    <cellStyle name="60% - Accent2" xfId="79"/>
+    <cellStyle name="Accent3" xfId="80"/>
+    <cellStyle name="20% - Accent3" xfId="81"/>
+    <cellStyle name="Accent4" xfId="82"/>
+    <cellStyle name="20% - Accent4" xfId="83"/>
+    <cellStyle name="40% - Accent4" xfId="84"/>
+    <cellStyle name="Accent5" xfId="85"/>
+    <cellStyle name="40% - Accent5" xfId="86"/>
+    <cellStyle name="60% - Accent5" xfId="87"/>
+    <cellStyle name="Accent6" xfId="88"/>
+    <cellStyle name="40% - Accent6" xfId="89"/>
+    <cellStyle name="60% - Accent6" xfId="90"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -871,6 +926,718 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" b="0" u="none" baseline="0"/>
+              <a:t>EFcore30Benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DapperLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$2:$B$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LazyLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$2:$C$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EagerLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$D$2:$D$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>StoredProcedure</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$E$2:$E$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>NativeQuery</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$F$2:$F$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>DapperLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$G$2:$G$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="25730616"/>
+        <c:axId val="30248956"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="25730616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30248956"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30248956"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="25730616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" u="none" baseline="0"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:date1904 val="1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="none" baseline="0"/>
+              <a:t>EFcore30Benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NativeQuery</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$18:$B$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LazyLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$18:$C$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EagerLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$D$18:$D$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>StoredProcedure</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$E$18:$E$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>NativeQuery</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$F$18:$F$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>DapperLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$G$18:$G$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="3805153"/>
+        <c:axId val="34246385"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="3805153"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34246385"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34246385"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="3805153"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" u="none" baseline="0"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:date1904 val="1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>EFcore30Benchmark</a:t>
             </a:r>
@@ -928,7 +1695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EFcore30Benchmark!$B$2:$B$5</c:f>
+              <c:f>EFcore30Benchmark!$B$34:$B$37</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -970,7 +1737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EFcore30Benchmark!$C$2:$C$5</c:f>
+              <c:f>EFcore30Benchmark!$C$34:$C$37</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1012,7 +1779,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EFcore30Benchmark!$D$2:$D$5</c:f>
+              <c:f>EFcore30Benchmark!$D$34:$D$37</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1054,7 +1821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EFcore30Benchmark!$E$2:$E$5</c:f>
+              <c:f>EFcore30Benchmark!$E$34:$E$37</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1096,7 +1863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EFcore30Benchmark!$F$2:$F$5</c:f>
+              <c:f>EFcore30Benchmark!$F$34:$F$37</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1138,16 +1905,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EFcore30Benchmark!$G$2:$G$5</c:f>
+              <c:f>EFcore30Benchmark!$G$34:$G$37</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="14363903"/>
-        <c:axId val="62166264"/>
+        <c:axId val="39782011"/>
+        <c:axId val="22493786"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14363903"/>
+        <c:axId val="39782011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,13 +1924,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62166264"/>
+        <c:crossAx val="22493786"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62166264"/>
+        <c:axId val="22493786"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="14363903"/>
+        <c:crossAx val="39782011"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits/>
@@ -1235,6 +2002,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6515100" y="2743200"/>
+        <a:ext cx="12801600" cy="2400300"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6515100" y="5486400"/>
+        <a:ext cx="12801600" cy="2400300"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1562,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,22 +2575,338 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1"/>
-    <row r="18" ht="13.5" customHeight="1"/>
-    <row r="19" ht="13.5" customHeight="1"/>
-    <row r="20" ht="13.5" customHeight="1"/>
-    <row r="21" ht="13.5" customHeight="1"/>
-    <row r="22" ht="13.5" customHeight="1"/>
-    <row r="23" ht="13.5" customHeight="1"/>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="33" ht="13.5" customHeight="1"/>
-    <row r="34" ht="13.5" customHeight="1"/>
-    <row r="35" ht="13.5" customHeight="1"/>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
-    <row r="38" ht="13.5" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>1550.6259</v>
+      </c>
+      <c r="C18">
+        <v>94.0622</v>
+      </c>
+      <c r="D18">
+        <v>2.1603</v>
+      </c>
+      <c r="E18">
+        <v>9.2278</v>
+      </c>
+      <c r="F18">
+        <v>2.2459</v>
+      </c>
+      <c r="G18">
+        <v>129.4131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>2.3505632231404956</v>
+      </c>
+      <c r="C19">
+        <v>2.0540368257261417</v>
+      </c>
+      <c r="D19">
+        <v>2.0507946652719675</v>
+      </c>
+      <c r="E19">
+        <v>2.084652593360997</v>
+      </c>
+      <c r="F19">
+        <v>1.933873899371071</v>
+      </c>
+      <c r="G19">
+        <v>1.3881008565310486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>35.3295</v>
+      </c>
+      <c r="C20">
+        <v>7.9795</v>
+      </c>
+      <c r="D20">
+        <v>5.6878</v>
+      </c>
+      <c r="E20">
+        <v>6.9774</v>
+      </c>
+      <c r="F20">
+        <v>6.3369</v>
+      </c>
+      <c r="G20">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>1.4305</v>
+      </c>
+      <c r="C21">
+        <v>1.4803</v>
+      </c>
+      <c r="D21">
+        <v>1.4746</v>
+      </c>
+      <c r="E21">
+        <v>1.4591</v>
+      </c>
+      <c r="F21">
+        <v>1.4129</v>
+      </c>
+      <c r="G21">
+        <v>0.9937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>467.0055</v>
+      </c>
+      <c r="C34">
+        <v>991.0041</v>
+      </c>
+      <c r="D34">
+        <v>3.0013</v>
+      </c>
+      <c r="E34">
+        <v>16.5533</v>
+      </c>
+      <c r="F34">
+        <v>9.4833</v>
+      </c>
+      <c r="G34">
+        <v>1.7503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1.641999147121536</v>
+      </c>
+      <c r="C35">
+        <v>2.267055475206613</v>
+      </c>
+      <c r="D35">
+        <v>2.0954279411764705</v>
+      </c>
+      <c r="E35">
+        <v>2.1498549896049908</v>
+      </c>
+      <c r="F35">
+        <v>2.038473618352451</v>
+      </c>
+      <c r="G35">
+        <v>1.3774759139784942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>44.0002</v>
+      </c>
+      <c r="C36">
+        <v>32.1686</v>
+      </c>
+      <c r="D36">
+        <v>9.2735</v>
+      </c>
+      <c r="E36">
+        <v>5.324</v>
+      </c>
+      <c r="F36">
+        <v>6.8542</v>
+      </c>
+      <c r="G36">
+        <v>6.5028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>0.9823</v>
+      </c>
+      <c r="C37">
+        <v>1.5368</v>
+      </c>
+      <c r="D37">
+        <v>1.5205</v>
+      </c>
+      <c r="E37">
+        <v>1.5575</v>
+      </c>
+      <c r="F37">
+        <v>1.4754</v>
+      </c>
+      <c r="G37">
+        <v>1.0186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="49" ht="13.5" customHeight="1"/>
     <row r="50" ht="13.5" customHeight="1"/>
     <row r="51" ht="13.5" customHeight="1"/>

--- a/EFcore30Benchmark/EFBenchmark_Result.xlsx
+++ b/EFcore30Benchmark/EFBenchmark_Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9132"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="28245" windowHeight="12390" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="EFcore30Benchmark" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
   <si>
     <t>Sumaries</t>
   </si>
@@ -84,30 +85,51 @@
   <si>
     <t>Đảo thứ tự LazyLoad lên trước tiên</t>
   </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,7 +137,61 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,42 +199,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,37 +207,37 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,64 +245,92 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="+mn-cs"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.5999900102615356"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799979984760284"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999900102615356"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999900102615356"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +342,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990010261536"/>
+        <fgColor theme="4" tint="0.7999799847602844"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980008602142"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999799847602844"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.7999799847602844"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999799847602844"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999799847602844"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999799847602844"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999900102615356"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,151 +438,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799979984760284"/>
+        <fgColor theme="8" tint="0.5999900102615356"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.39998000860214233"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980008602142"/>
+        <fgColor theme="9" tint="0.5999900102615356"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990010261536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980008602142"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990010261536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799979984760284"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980008602142"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990010261536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990010261536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980008602142"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799979984760284"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990010261536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799979984760284"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799979984760284"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980008602142"/>
+        <fgColor theme="9" tint="0.39998000860214233"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,59 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499980002641678"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,7 +488,50 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.49998000264167786"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -529,74 +546,193 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="77">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -605,58 +741,126 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="40% - Accent1" xfId="34"/>
+    <cellStyle name="Check Cell" xfId="35"/>
+    <cellStyle name="Heading 2" xfId="36"/>
+    <cellStyle name="Note" xfId="37"/>
+    <cellStyle name="Hyperlink" xfId="38"/>
+    <cellStyle name="60% - Accent4" xfId="39"/>
+    <cellStyle name="Followed Hyperlink" xfId="40"/>
+    <cellStyle name="40% - Accent3" xfId="41"/>
+    <cellStyle name="Warning Text" xfId="42"/>
+    <cellStyle name="40% - Accent2" xfId="43"/>
+    <cellStyle name="Title" xfId="44"/>
+    <cellStyle name="CExplanatory Text" xfId="45"/>
+    <cellStyle name="Heading 1" xfId="46"/>
+    <cellStyle name="Heading 3" xfId="47"/>
+    <cellStyle name="Heading 4" xfId="48"/>
+    <cellStyle name="Input" xfId="49"/>
+    <cellStyle name="60% - Accent3" xfId="50"/>
+    <cellStyle name="Good" xfId="51"/>
+    <cellStyle name="Output" xfId="52"/>
+    <cellStyle name="20% - Accent1" xfId="53"/>
+    <cellStyle name="Calculation" xfId="54"/>
+    <cellStyle name="Linked Cell" xfId="55"/>
+    <cellStyle name="Total" xfId="56"/>
+    <cellStyle name="Bad" xfId="57"/>
+    <cellStyle name="Neutral" xfId="58"/>
+    <cellStyle name="Accent1" xfId="59"/>
+    <cellStyle name="20% - Accent5" xfId="60"/>
+    <cellStyle name="60% - Accent1" xfId="61"/>
+    <cellStyle name="Accent2" xfId="62"/>
+    <cellStyle name="20% - Accent2" xfId="63"/>
+    <cellStyle name="20% - Accent6" xfId="64"/>
+    <cellStyle name="60% - Accent2" xfId="65"/>
+    <cellStyle name="Accent3" xfId="66"/>
+    <cellStyle name="20% - Accent3" xfId="67"/>
+    <cellStyle name="Accent4" xfId="68"/>
+    <cellStyle name="20% - Accent4" xfId="69"/>
+    <cellStyle name="40% - Accent4" xfId="70"/>
+    <cellStyle name="Accent5" xfId="71"/>
+    <cellStyle name="40% - Accent5" xfId="72"/>
+    <cellStyle name="60% - Accent5" xfId="73"/>
+    <cellStyle name="Accent6" xfId="74"/>
+    <cellStyle name="40% - Accent6" xfId="75"/>
+    <cellStyle name="60% - Accent6" xfId="76"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -666,47 +870,34 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" baseline="0">
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:t>EFcore30Benchmark</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" baseline="0">
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -719,7 +910,6 @@
         </a:ln>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -730,65 +920,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"EagerLoad"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EagerLoad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EagerLoad</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1261.8345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>115.347991675025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>239.9718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.096</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -796,70 +934,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$2:$B$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"LazyLoad"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LazyLoad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>LazyLoad</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>94.114</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.7288466800805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>189.1521</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.8954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -867,70 +980,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$2:$C$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"NativeQuery"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NativeQuery</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>NativeQuery</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>104.4253</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.929257815631</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>244.0117</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87.3608</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -938,70 +1026,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$D$2:$D$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"StoredProcedure"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StoredProcedure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>StoredProcedure</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$E$2:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>107.5893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.1062548387096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>194.1029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.7537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1009,36 +1072,54 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$E$2:$E$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="21497484"/>
-        <c:axId val="59259633"/>
+        <c:axId val="3156593"/>
+        <c:axId val="28409339"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21497484"/>
+        <c:axId val="3156593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:axPos val="b"/>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1049,31 +1130,30 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59259633"/>
+        <c:crossAx val="28409339"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59259633"/>
+        <c:axId val="28409339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1084,9 +1164,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21497484"/>
+        <c:crossAx val="3156593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1094,17 +1175,17 @@
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1123,63 +1204,60 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:printSettings>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:lang xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" val="zh-CN"/>
+  <c:printSettings xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:date1904 val="0"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:t>EFcore30Benchmark</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1192,7 +1270,6 @@
         </a:ln>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1203,65 +1280,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"EagerLoad"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EagerLoad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EagerLoad</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$B$18:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1204.8045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.954152758275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>158.6431</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.8392</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1269,70 +1294,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$18:$B$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"LazyLoad"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LazyLoad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>LazyLoad</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$C$18:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>104.9874</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.4178102204408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>309.5639</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.7049</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1340,70 +1340,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$18:$C$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"NativeQuery"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NativeQuery</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>NativeQuery</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$D$18:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>200.88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.7304109327983</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>207.2274</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.9402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1411,70 +1386,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$D$18:$D$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"StoredProcedure"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StoredProcedure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>StoredProcedure</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$E$18:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>113.0542</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.1926232394366</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>189.4692</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.7722</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1482,36 +1432,54 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$E$18:$E$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="63574653"/>
-        <c:axId val="35300969"/>
+        <c:axId val="54357462"/>
+        <c:axId val="19455116"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63574653"/>
+        <c:axId val="54357462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:axPos val="b"/>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1522,23 +1490,21 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35300969"/>
+        <c:crossAx val="19455116"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35300969"/>
+        <c:axId val="19455116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:tint val="75000"/>
@@ -1549,16 +1515,17 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1569,9 +1536,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63574653"/>
+        <c:crossAx val="54357462"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1579,17 +1547,17 @@
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1608,49 +1576,60 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:printSettings>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:lang xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" val="zh-CN"/>
+  <c:printSettings xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:date1904 val="0"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
               <a:t>EFcore30Benchmark</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1663,7 +1642,6 @@
         </a:ln>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1674,65 +1652,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"LazyLoad"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LazyLoad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>LazyLoad</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1173.7602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.6083971971972</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>242.7095</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.0196</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1740,70 +1666,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$34:$B$37</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"NativeQuery"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NativeQuery</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>NativeQuery</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$C$34:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>125.141</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102.54940873494</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>288.7305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>88.8377</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1811,70 +1712,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$34:$C$37</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"StoredProcedure"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StoredProcedure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>StoredProcedure</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100.9891</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.938745336008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>226.8618</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>88.3434</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1882,70 +1758,45 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$D$34:$D$37</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"EagerLoad"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EagerLoad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EagerLoad</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>{"FirstRunElapsed","Mean","Max","Min"}</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FirstRunElapsed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mean</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>EFcore30Benchmark!$E$34:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>138.4786</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>114.438066432161</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>283.7492</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.3601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                <c14:spPr>
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1953,63 +1804,79 @@
               </c14:invertSolidFillFmt>
             </c:ext>
           </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$E$34:$E$37</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="49273270"/>
-        <c:axId val="40806254"/>
+        <c:axId val="40878316"/>
+        <c:axId val="32360529"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49273270"/>
+        <c:axId val="40878316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:axPos val="b"/>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:ea typeface="+mn-cs"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40806254"/>
+        <c:crossAx val="32360529"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40806254"/>
+        <c:axId val="32360529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:tint val="75000"/>
@@ -2020,29 +1887,31 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:ea typeface="+mn-cs"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49273270"/>
+        <c:crossAx val="40878316"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2050,17 +1919,17 @@
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -2071,24 +1940,765 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="en-US" u="none" baseline="0"/>
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:printSettings>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:lang xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" val="zh-CN"/>
+  <c:printSettings xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:date1904 val="0"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" baseline="0">
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t>EFcore30Benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LazyLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$50:$B$53</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NativeQuery</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$50:$C$53</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>StoredProcedure</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$D$50:$D$53</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EagerLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$E$50:$E$53</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="22809306"/>
+        <c:axId val="3957170"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="22809306"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-cs"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3957170"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="3957170"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-cs"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22809306"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" u="none" baseline="0"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:lang xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" val="zh-CN"/>
+  <c:printSettings xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:date1904 val="0"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="none" baseline="0"/>
+              <a:t>EFcore30Benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EagerLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$58:$B$61</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LazyLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$58:$C$61</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="35614537"/>
+        <c:axId val="52095385"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="35614537"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52095385"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52095385"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="35614537"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" u="none" baseline="0"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:date1904 val="1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EFcore30Benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EagerLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$B$74:$B$77</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LazyLoad</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>FirstRunElapsed</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Mean</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Max</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Min</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EFcore30Benchmark!$C$74:$C$77</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="66205281"/>
+        <c:axId val="58976619"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66205281"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58976619"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58976619"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:delete val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="66205281"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:extLst>
+    <c:ext>
+      <c:pivotOptions>
+        <c14 xmlns="dropZoneFilter" val="1"/>
+        <c14 xmlns="dropZoneCategories" val="1"/>
+        <c14 xmlns="dropZoneData" val="1"/>
+        <c14 xmlns="dropZoneSeries" val="1"/>
+        <c14 xmlns="dropZonesVisible" val="1"/>
+      </c:pivotOptions>
+    </c:ext>
+  </c:extLst>
+  <c:date1904 val="1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2108,12 +2718,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5580380" y="0"/>
-        <a:ext cx="11582400" cy="2613660"/>
+        <a:off x="5476875" y="0"/>
+        <a:ext cx="11220450" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2138,12 +2748,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5580380" y="2987040"/>
-        <a:ext cx="9144000" cy="2621280"/>
+        <a:off x="5476875" y="3048000"/>
+        <a:ext cx="8858250" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2168,12 +2778,102 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5580380" y="5981700"/>
-        <a:ext cx="9144000" cy="2613660"/>
+        <a:off x="5476875" y="6096000"/>
+        <a:ext cx="8858250" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5476875" y="9144000"/>
+        <a:ext cx="8858250" cy="2667000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3829050" y="10668000"/>
+        <a:ext cx="5781675" cy="2667000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3829050" y="13716000"/>
+        <a:ext cx="5781675" cy="2667000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2439,21 +3139,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A37">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.2222222222222" customWidth="1"/>
-    <col min="2" max="3" width="13.2777777777778" customWidth="1"/>
-    <col min="4" max="5" width="15.8518518518519" customWidth="1"/>
+    <col min="1" max="1" width="15.00390625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.8515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2487,7 +3186,7 @@
         <v>107.5893</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2504,7 +3203,7 @@
         <v>97.1062548387096</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2521,7 +3220,7 @@
         <v>194.1029</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2538,7 +3237,7 @@
         <v>90.7537</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +3254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2572,12 +3271,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:1">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2611,7 +3310,7 @@
         <v>113.0542</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2628,7 +3327,7 @@
         <v>97.1926232394366</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2645,7 +3344,7 @@
         <v>189.4692</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +3361,7 @@
         <v>90.7722</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2679,7 +3378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2696,7 +3395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2705,12 +3404,12 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:1">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +3443,7 @@
         <v>138.4786</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +3460,7 @@
         <v>114.438066432161</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +3477,7 @@
         <v>283.7492</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +3494,7 @@
         <v>95.3601</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2812,7 +3511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2829,7 +3528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -2838,8 +3537,297 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>1941.8407</v>
+      </c>
+      <c r="C50">
+        <v>64.4921</v>
+      </c>
+      <c r="D50">
+        <v>50.2407</v>
+      </c>
+      <c r="E50">
+        <v>81.0118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>74.9147232698093</v>
+      </c>
+      <c r="C51">
+        <v>43.1026828828828</v>
+      </c>
+      <c r="D51">
+        <v>39.7472959718026</v>
+      </c>
+      <c r="E51">
+        <v>44.1423870741484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>213.3249</v>
+      </c>
+      <c r="C52">
+        <v>219.5419</v>
+      </c>
+      <c r="D52">
+        <v>61.2786</v>
+      </c>
+      <c r="E52">
+        <v>82.2509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>50.4784</v>
+      </c>
+      <c r="C53">
+        <v>34.0298</v>
+      </c>
+      <c r="D53">
+        <v>32.0177</v>
+      </c>
+      <c r="E53">
+        <v>34.8346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>2367.9977</v>
+      </c>
+      <c r="C58">
+        <v>119.1268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>44.23619589178354</v>
+      </c>
+      <c r="C59">
+        <v>68.67787647647648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>80.7382</v>
+      </c>
+      <c r="C60">
+        <v>120.8144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>35.7395</v>
+      </c>
+      <c r="C61">
+        <v>47.7728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>1793.6425</v>
+      </c>
+      <c r="C74">
+        <v>77.4976</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>1.0776</v>
+      </c>
+      <c r="C75">
+        <v>2.143675336787564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" customHeight="1">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>30.4555</v>
+      </c>
+      <c r="C76">
+        <v>11.6599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>0.4704</v>
+      </c>
+      <c r="C77">
+        <v>1.4255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" customHeight="1">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" ht="15">
+      <c r="A87" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2848,60 +3836,57 @@
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A42:E42"/>
   </mergeCells>
+  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <sheetData/>
+  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <sheetData/>
+  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <sheetData/>
+  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>